--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/NEW_HAMPSHIRE_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/NEW_HAMPSHIRE_2014.xlsx
@@ -470,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -555,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -568,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -617,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -630,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -679,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -692,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -741,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -754,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -803,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -816,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -829,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -842,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -855,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -868,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -899,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -912,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -925,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -938,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -951,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1018,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1031,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1044,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -1093,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -1106,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1119,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1132,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1289,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1338,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1387,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1436,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -1449,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -1462,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -1619,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -1632,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1645,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1676,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -1689,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Sombrerete</t>
